--- a/public/data/lime/lime_table_uganda.xlsx
+++ b/public/data/lime/lime_table_uganda.xlsx
@@ -1783,16 +1783,16 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3.29</v>
       </c>
       <c r="E2" t="n">
-        <v>2.29</v>
+        <v>1.1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.77</v>
+        <v>0.11</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1801,16 +1801,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.44</v>
+        <v>2.73</v>
       </c>
       <c r="K2" t="n">
-        <v>1.65</v>
+        <v>0.71</v>
       </c>
       <c r="L2" t="n">
-        <v>0.41</v>
+        <v>0.02</v>
       </c>
       <c r="M2" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1848,16 +1848,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.04</v>
+        <v>3.01</v>
       </c>
       <c r="K3" t="n">
-        <v>1.86</v>
+        <v>0.68</v>
       </c>
       <c r="L3" t="n">
-        <v>0.45</v>
+        <v>0.02</v>
       </c>
       <c r="M3" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.37</v>
+        <v>3.84</v>
       </c>
       <c r="K4" t="n">
-        <v>2.64</v>
+        <v>1.53</v>
       </c>
       <c r="L4" t="n">
-        <v>0.77</v>
+        <v>0.09</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>5.26</v>
+        <v>4.73</v>
       </c>
       <c r="K5" t="n">
-        <v>3.61</v>
+        <v>2.56</v>
       </c>
       <c r="L5" t="n">
-        <v>1.84</v>
+        <v>0.84</v>
       </c>
       <c r="M5" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1989,16 +1989,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.63</v>
+        <v>5.99</v>
       </c>
       <c r="K6" t="n">
-        <v>4.63</v>
+        <v>3.36</v>
       </c>
       <c r="L6" t="n">
-        <v>2.51</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -2036,16 +2036,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4.88</v>
+        <v>4.28</v>
       </c>
       <c r="K7" t="n">
-        <v>2.92</v>
+        <v>1.79</v>
       </c>
       <c r="L7" t="n">
-        <v>1.05</v>
+        <v>0.32</v>
       </c>
       <c r="M7" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.25</v>
+        <v>0.48</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -2130,16 +2130,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.44</v>
+        <v>1.86</v>
       </c>
       <c r="K9" t="n">
-        <v>1.11</v>
+        <v>0.49</v>
       </c>
       <c r="L9" t="n">
-        <v>0.32</v>
+        <v>0.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -2177,16 +2177,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.61</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
-        <v>3.03</v>
+        <v>1.98</v>
       </c>
       <c r="L10" t="n">
-        <v>1.61</v>
+        <v>0.52</v>
       </c>
       <c r="M10" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -2224,16 +2224,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.48</v>
+        <v>1.55</v>
       </c>
       <c r="K11" t="n">
-        <v>0.74</v>
+        <v>0.2</v>
       </c>
       <c r="L11" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -2271,16 +2271,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.99</v>
+        <v>2.35</v>
       </c>
       <c r="K12" t="n">
-        <v>1.51</v>
+        <v>0.6</v>
       </c>
       <c r="L12" t="n">
-        <v>0.41</v>
+        <v>0.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2318,16 +2318,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.87</v>
+        <v>1.29</v>
       </c>
       <c r="K13" t="n">
-        <v>0.68</v>
+        <v>0.21</v>
       </c>
       <c r="L13" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="M13" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2347,13 +2347,13 @@
         <v>103</v>
       </c>
       <c r="D14" t="n">
-        <v>3.28</v>
+        <v>2.65</v>
       </c>
       <c r="E14" t="n">
-        <v>1.35</v>
+        <v>0.35</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.71</v>
+        <v>1.85</v>
       </c>
       <c r="K14" t="n">
-        <v>0.78</v>
+        <v>0.21</v>
       </c>
       <c r="L14" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2394,16 +2394,16 @@
         <v>105</v>
       </c>
       <c r="D15" t="n">
-        <v>3.16</v>
+        <v>2.32</v>
       </c>
       <c r="E15" t="n">
-        <v>1.29</v>
+        <v>0.28</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2412,16 +2412,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.81</v>
+        <v>2.07</v>
       </c>
       <c r="K15" t="n">
-        <v>1.08</v>
+        <v>0.41</v>
       </c>
       <c r="L15" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2441,10 +2441,10 @@
         <v>107</v>
       </c>
       <c r="D16" t="n">
-        <v>2.59</v>
+        <v>1.56</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.24</v>
+        <v>0.92</v>
       </c>
       <c r="K16" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2506,16 +2506,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.27</v>
+        <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>110</v>
       </c>
       <c r="D18" t="n">
-        <v>3.67</v>
+        <v>3.03</v>
       </c>
       <c r="E18" t="n">
-        <v>1.65</v>
+        <v>0.66</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2553,13 +2553,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4.13</v>
+        <v>3.38</v>
       </c>
       <c r="K18" t="n">
-        <v>1.84</v>
+        <v>0.54</v>
       </c>
       <c r="L18" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2582,16 +2582,16 @@
         <v>111</v>
       </c>
       <c r="D19" t="n">
-        <v>1.87</v>
+        <v>1.21</v>
       </c>
       <c r="E19" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.06</v>
+        <v>0.83</v>
       </c>
       <c r="K19" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2629,26 +2629,26 @@
         <v>112</v>
       </c>
       <c r="D20" t="n">
-        <v>4.63</v>
+        <v>3.99</v>
       </c>
       <c r="E20" t="n">
-        <v>2.64</v>
+        <v>1.59</v>
       </c>
       <c r="F20" t="n">
-        <v>0.85</v>
+        <v>0.04</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>0.45</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.28</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2676,16 +2676,16 @@
         <v>113</v>
       </c>
       <c r="D21" t="n">
-        <v>6.07</v>
+        <v>5.33</v>
       </c>
       <c r="E21" t="n">
-        <v>3.8</v>
+        <v>2.44</v>
       </c>
       <c r="F21" t="n">
-        <v>1.63</v>
+        <v>0.45</v>
       </c>
       <c r="G21" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2694,16 +2694,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.24</v>
+        <v>3.34</v>
       </c>
       <c r="K21" t="n">
-        <v>1.92</v>
+        <v>0.57</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2723,16 +2723,16 @@
         <v>114</v>
       </c>
       <c r="D22" t="n">
-        <v>5.14</v>
+        <v>4.46</v>
       </c>
       <c r="E22" t="n">
-        <v>3.02</v>
+        <v>1.67</v>
       </c>
       <c r="F22" t="n">
-        <v>0.87</v>
+        <v>0.05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2741,13 +2741,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.13</v>
+        <v>4.37</v>
       </c>
       <c r="K22" t="n">
-        <v>3.02</v>
+        <v>1.39</v>
       </c>
       <c r="L22" t="n">
-        <v>0.65</v>
+        <v>0.03</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2788,16 +2788,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.26</v>
+        <v>2.51</v>
       </c>
       <c r="K23" t="n">
-        <v>1.37</v>
+        <v>0.58</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="M23" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2835,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="K24" t="n">
-        <v>2.16</v>
+        <v>1.34</v>
       </c>
       <c r="L24" t="n">
-        <v>0.73</v>
+        <v>0.08</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2882,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.52</v>
+        <v>2.68</v>
       </c>
       <c r="K25" t="n">
-        <v>1.51</v>
+        <v>0.53</v>
       </c>
       <c r="L25" t="n">
-        <v>0.29</v>
+        <v>0.02</v>
       </c>
       <c r="M25" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2911,16 +2911,16 @@
         <v>118</v>
       </c>
       <c r="D26" t="n">
-        <v>5.86</v>
+        <v>2.07</v>
       </c>
       <c r="E26" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2929,16 +2929,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.9</v>
+        <v>2.06</v>
       </c>
       <c r="K26" t="n">
-        <v>1.05</v>
+        <v>0.34</v>
       </c>
       <c r="L26" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="M26" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2976,16 +2976,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.84</v>
+        <v>3.24</v>
       </c>
       <c r="K27" t="n">
-        <v>1.99</v>
+        <v>1.15</v>
       </c>
       <c r="L27" t="n">
-        <v>0.62</v>
+        <v>0.18</v>
       </c>
       <c r="M27" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -3005,13 +3005,13 @@
         <v>121</v>
       </c>
       <c r="D28" t="n">
-        <v>2.54</v>
+        <v>1.86</v>
       </c>
       <c r="E28" t="n">
-        <v>0.92</v>
+        <v>0.26</v>
       </c>
       <c r="F28" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -3023,16 +3023,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.56</v>
+        <v>2.75</v>
       </c>
       <c r="K28" t="n">
-        <v>1.52</v>
+        <v>0.59</v>
       </c>
       <c r="L28" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="M28" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -3052,34 +3052,34 @@
         <v>122</v>
       </c>
       <c r="D29" t="n">
-        <v>1.59</v>
+        <v>0.95</v>
       </c>
       <c r="E29" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.01</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.13</v>
-      </c>
       <c r="M29" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -3099,16 +3099,16 @@
         <v>124</v>
       </c>
       <c r="D30" t="n">
-        <v>2.72</v>
+        <v>2.1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.98</v>
+        <v>0.08</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3117,16 +3117,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.54</v>
+        <v>1.9</v>
       </c>
       <c r="K30" t="n">
-        <v>0.88</v>
+        <v>0.4</v>
       </c>
       <c r="L30" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>125</v>
       </c>
       <c r="D31" t="n">
-        <v>3.74</v>
+        <v>2.95</v>
       </c>
       <c r="E31" t="n">
-        <v>1.98</v>
+        <v>0.41</v>
       </c>
       <c r="F31" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3164,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.62</v>
+        <v>3.06</v>
       </c>
       <c r="K31" t="n">
-        <v>2.13</v>
+        <v>1.08</v>
       </c>
       <c r="L31" t="n">
-        <v>0.63</v>
+        <v>0.04</v>
       </c>
       <c r="M31" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3193,13 +3193,13 @@
         <v>126</v>
       </c>
       <c r="D32" t="n">
-        <v>2.37</v>
+        <v>1.87</v>
       </c>
       <c r="E32" t="n">
-        <v>1.08</v>
+        <v>0.19</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3211,16 +3211,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.97</v>
+        <v>1.33</v>
       </c>
       <c r="K32" t="n">
-        <v>0.56</v>
+        <v>0.24</v>
       </c>
       <c r="L32" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="M32" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.92</v>
+        <v>2.31</v>
       </c>
       <c r="K33" t="n">
-        <v>1.41</v>
+        <v>0.78</v>
       </c>
       <c r="L33" t="n">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
       <c r="M33" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3287,16 +3287,16 @@
         <v>129</v>
       </c>
       <c r="D34" t="n">
-        <v>2.73</v>
+        <v>1.37</v>
       </c>
       <c r="E34" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3305,16 +3305,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.68</v>
+        <v>0.93</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3352,16 +3352,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.61</v>
+        <v>1.36</v>
       </c>
       <c r="K35" t="n">
-        <v>0.46</v>
+        <v>0.02</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3399,16 +3399,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.7</v>
+        <v>0.98</v>
       </c>
       <c r="K36" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3428,13 +3428,13 @@
         <v>131</v>
       </c>
       <c r="D37" t="n">
-        <v>4.36</v>
+        <v>3.71</v>
       </c>
       <c r="E37" t="n">
-        <v>2.23</v>
+        <v>0.92</v>
       </c>
       <c r="F37" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3446,10 +3446,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.96</v>
+        <v>3.02</v>
       </c>
       <c r="K37" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3475,16 +3475,16 @@
         <v>132</v>
       </c>
       <c r="D38" t="n">
-        <v>4.06</v>
+        <v>3.29</v>
       </c>
       <c r="E38" t="n">
-        <v>1.52</v>
+        <v>0.4</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="G38" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3493,16 +3493,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.91</v>
+        <v>1.79</v>
       </c>
       <c r="K38" t="n">
-        <v>0.51</v>
+        <v>0.14</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3522,13 +3522,13 @@
         <v>133</v>
       </c>
       <c r="D39" t="n">
-        <v>3.81</v>
+        <v>3.11</v>
       </c>
       <c r="E39" t="n">
-        <v>1.52</v>
+        <v>0.54</v>
       </c>
       <c r="F39" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3540,16 +3540,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.77</v>
+        <v>1.6</v>
       </c>
       <c r="K39" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -3569,16 +3569,16 @@
         <v>134</v>
       </c>
       <c r="D40" t="n">
-        <v>3.78</v>
+        <v>3.1</v>
       </c>
       <c r="E40" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="F40" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3587,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.51</v>
+        <v>1.65</v>
       </c>
       <c r="K40" t="n">
-        <v>0.63</v>
+        <v>0.08</v>
       </c>
       <c r="L40" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.29</v>
+        <v>0.92</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>137</v>
       </c>
       <c r="D42" t="n">
-        <v>1.31</v>
+        <v>0.47</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3672,25 +3672,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
         <v>0.45</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.5</v>
-      </c>
       <c r="K42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.14</v>
+        <v>0.28</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>139</v>
       </c>
       <c r="D44" t="n">
-        <v>3.68</v>
+        <v>2.19</v>
       </c>
       <c r="E44" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3775,13 +3775,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>5.68</v>
+        <v>5.01</v>
       </c>
       <c r="K44" t="n">
-        <v>3.95</v>
+        <v>2.62</v>
       </c>
       <c r="L44" t="n">
-        <v>2.11</v>
+        <v>0.67</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -3804,13 +3804,13 @@
         <v>140</v>
       </c>
       <c r="D45" t="n">
-        <v>6.72</v>
+        <v>4.78</v>
       </c>
       <c r="E45" t="n">
-        <v>4.25</v>
+        <v>0.08</v>
       </c>
       <c r="F45" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -3822,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.65</v>
+        <v>4.08</v>
       </c>
       <c r="K45" t="n">
-        <v>3.08</v>
+        <v>1.95</v>
       </c>
       <c r="L45" t="n">
-        <v>1.45</v>
+        <v>0.52</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3851,13 +3851,13 @@
         <v>142</v>
       </c>
       <c r="D46" t="n">
-        <v>4.62</v>
+        <v>3.8</v>
       </c>
       <c r="E46" t="n">
-        <v>3.12</v>
+        <v>1.37</v>
       </c>
       <c r="F46" t="n">
-        <v>1.42</v>
+        <v>0.02</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>7.91</v>
+        <v>6.82</v>
       </c>
       <c r="K46" t="n">
-        <v>6.3</v>
+        <v>3.95</v>
       </c>
       <c r="L46" t="n">
-        <v>4.42</v>
+        <v>0.76</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -3898,13 +3898,13 @@
         <v>143</v>
       </c>
       <c r="D47" t="n">
-        <v>6.65</v>
+        <v>5.42</v>
       </c>
       <c r="E47" t="n">
-        <v>4.83</v>
+        <v>2.19</v>
       </c>
       <c r="F47" t="n">
-        <v>2.71</v>
+        <v>0.03</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3916,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>5.64</v>
+        <v>4.28</v>
       </c>
       <c r="K47" t="n">
-        <v>3.32</v>
+        <v>0.58</v>
       </c>
       <c r="L47" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>144</v>
       </c>
       <c r="D48" t="n">
-        <v>2.35</v>
+        <v>1.16</v>
       </c>
       <c r="E48" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -3963,16 +3963,16 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.82</v>
+        <v>0.79</v>
       </c>
       <c r="K48" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3992,13 +3992,13 @@
         <v>146</v>
       </c>
       <c r="D49" t="n">
-        <v>5.89</v>
+        <v>4.31</v>
       </c>
       <c r="E49" t="n">
-        <v>3.46</v>
+        <v>0.65</v>
       </c>
       <c r="F49" t="n">
-        <v>0.95</v>
+        <v>0.03</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -4010,16 +4010,16 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>4.61</v>
+        <v>3.83</v>
       </c>
       <c r="K49" t="n">
-        <v>2.81</v>
+        <v>1.46</v>
       </c>
       <c r="L49" t="n">
-        <v>1.09</v>
+        <v>0.16</v>
       </c>
       <c r="M49" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>147</v>
       </c>
       <c r="D50" t="n">
-        <v>4.86</v>
+        <v>3.73</v>
       </c>
       <c r="E50" t="n">
-        <v>2.76</v>
+        <v>0.69</v>
       </c>
       <c r="F50" t="n">
-        <v>0.62</v>
+        <v>0.12</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -4057,16 +4057,16 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>4.43</v>
+        <v>3.72</v>
       </c>
       <c r="K50" t="n">
-        <v>2.45</v>
+        <v>1.08</v>
       </c>
       <c r="L50" t="n">
-        <v>0.59</v>
+        <v>0.05</v>
       </c>
       <c r="M50" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -4086,13 +4086,13 @@
         <v>148</v>
       </c>
       <c r="D51" t="n">
-        <v>5.04</v>
+        <v>3.23</v>
       </c>
       <c r="E51" t="n">
-        <v>2.55</v>
+        <v>0.03</v>
       </c>
       <c r="F51" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>4.25</v>
+        <v>3.63</v>
       </c>
       <c r="K51" t="n">
-        <v>2.69</v>
+        <v>1.54</v>
       </c>
       <c r="L51" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -4151,16 +4151,16 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>4.3</v>
+        <v>3.61</v>
       </c>
       <c r="K52" t="n">
-        <v>2.3</v>
+        <v>1.02</v>
       </c>
       <c r="L52" t="n">
-        <v>0.46</v>
+        <v>0.02</v>
       </c>
       <c r="M52" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>151</v>
       </c>
       <c r="D53" t="n">
-        <v>2.4</v>
+        <v>1.39</v>
       </c>
       <c r="E53" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4198,16 +4198,16 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.63</v>
+        <v>1.55</v>
       </c>
       <c r="K53" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -4227,16 +4227,16 @@
         <v>152</v>
       </c>
       <c r="D54" t="n">
-        <v>3.17</v>
+        <v>2.29</v>
       </c>
       <c r="E54" t="n">
-        <v>1.17</v>
+        <v>0.23</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4245,16 +4245,16 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.94</v>
+        <v>1.98</v>
       </c>
       <c r="K54" t="n">
-        <v>0.56</v>
+        <v>0.01</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -4274,16 +4274,16 @@
         <v>154</v>
       </c>
       <c r="D55" t="n">
-        <v>2.68</v>
+        <v>1.94</v>
       </c>
       <c r="E55" t="n">
-        <v>1.02</v>
+        <v>0.3</v>
       </c>
       <c r="F55" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4292,16 +4292,16 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.84</v>
+        <v>1.75</v>
       </c>
       <c r="K55" t="n">
-        <v>0.86</v>
+        <v>0.2</v>
       </c>
       <c r="L55" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -4321,16 +4321,16 @@
         <v>156</v>
       </c>
       <c r="D56" t="n">
-        <v>4.48</v>
+        <v>3.65</v>
       </c>
       <c r="E56" t="n">
-        <v>2.3</v>
+        <v>0.82</v>
       </c>
       <c r="F56" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4339,16 +4339,16 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>3.34</v>
+        <v>2.15</v>
       </c>
       <c r="K56" t="n">
-        <v>1.05</v>
+        <v>0.17</v>
       </c>
       <c r="L56" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -4368,16 +4368,16 @@
         <v>157</v>
       </c>
       <c r="D57" t="n">
-        <v>3.92</v>
+        <v>3.23</v>
       </c>
       <c r="E57" t="n">
-        <v>2.2</v>
+        <v>0.79</v>
       </c>
       <c r="F57" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4386,16 +4386,16 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.91</v>
+        <v>1.84</v>
       </c>
       <c r="K57" t="n">
-        <v>0.77</v>
+        <v>0.14</v>
       </c>
       <c r="L57" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -4415,16 +4415,16 @@
         <v>158</v>
       </c>
       <c r="D58" t="n">
-        <v>3.77</v>
+        <v>2.95</v>
       </c>
       <c r="E58" t="n">
-        <v>1.74</v>
+        <v>0.52</v>
       </c>
       <c r="F58" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4433,16 +4433,16 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.96</v>
+        <v>0.79</v>
       </c>
       <c r="K58" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="L58" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -4462,10 +4462,10 @@
         <v>160</v>
       </c>
       <c r="D59" t="n">
-        <v>3.28</v>
+        <v>2.13</v>
       </c>
       <c r="E59" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -4480,16 +4480,16 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.4</v>
+        <v>1.03</v>
       </c>
       <c r="K59" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="L59" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -4509,10 +4509,10 @@
         <v>161</v>
       </c>
       <c r="D60" t="n">
-        <v>2.93</v>
+        <v>1.51</v>
       </c>
       <c r="E60" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -4527,16 +4527,16 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.65</v>
+        <v>1.13</v>
       </c>
       <c r="K60" t="n">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -4574,16 +4574,16 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>3.87</v>
+        <v>3.33</v>
       </c>
       <c r="K61" t="n">
-        <v>2.37</v>
+        <v>1.38</v>
       </c>
       <c r="L61" t="n">
-        <v>0.88</v>
+        <v>0.14</v>
       </c>
       <c r="M61" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -4621,16 +4621,16 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>3.13</v>
+        <v>2.6</v>
       </c>
       <c r="K62" t="n">
-        <v>1.7</v>
+        <v>0.92</v>
       </c>
       <c r="L62" t="n">
-        <v>0.57</v>
+        <v>0.09</v>
       </c>
       <c r="M62" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -4668,16 +4668,16 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.21</v>
+        <v>1.27</v>
       </c>
       <c r="K63" t="n">
-        <v>0.56</v>
+        <v>0.05</v>
       </c>
       <c r="L63" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -4697,10 +4697,10 @@
         <v>167</v>
       </c>
       <c r="D64" t="n">
-        <v>3.27</v>
+        <v>2.56</v>
       </c>
       <c r="E64" t="n">
-        <v>1.1</v>
+        <v>0.02</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -4715,16 +4715,16 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>4.1</v>
+        <v>3.31</v>
       </c>
       <c r="K64" t="n">
-        <v>2.04</v>
+        <v>0.81</v>
       </c>
       <c r="L64" t="n">
-        <v>0.42</v>
+        <v>0.03</v>
       </c>
       <c r="M64" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>168</v>
       </c>
       <c r="D65" t="n">
-        <v>2.79</v>
+        <v>2.11</v>
       </c>
       <c r="E65" t="n">
-        <v>0.97</v>
+        <v>0.07</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4762,16 +4762,16 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.99</v>
+        <v>2.3</v>
       </c>
       <c r="K65" t="n">
-        <v>1.17</v>
+        <v>0.42</v>
       </c>
       <c r="L65" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -4791,34 +4791,34 @@
         <v>169</v>
       </c>
       <c r="D66" t="n">
-        <v>1.37</v>
+        <v>0.63</v>
       </c>
       <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K66" t="n">
         <v>0.06</v>
       </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.35</v>
-      </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -4838,16 +4838,16 @@
         <v>170</v>
       </c>
       <c r="D67" t="n">
-        <v>1.47</v>
+        <v>0.79</v>
       </c>
       <c r="E67" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4856,16 +4856,16 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>3.27</v>
+        <v>2.38</v>
       </c>
       <c r="K67" t="n">
-        <v>1.21</v>
+        <v>0.47</v>
       </c>
       <c r="L67" t="n">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
       <c r="M67" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4885,16 +4885,16 @@
         <v>171</v>
       </c>
       <c r="D68" t="n">
-        <v>1.39</v>
+        <v>0.62</v>
       </c>
       <c r="E68" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4903,16 +4903,16 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.15</v>
+        <v>0.32</v>
       </c>
       <c r="K68" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4932,16 +4932,16 @@
         <v>172</v>
       </c>
       <c r="D69" t="n">
-        <v>2.04</v>
+        <v>1.25</v>
       </c>
       <c r="E69" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4950,16 +4950,16 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3.56</v>
+        <v>2.88</v>
       </c>
       <c r="K69" t="n">
-        <v>1.7</v>
+        <v>0.99</v>
       </c>
       <c r="L69" t="n">
-        <v>0.63</v>
+        <v>0.22</v>
       </c>
       <c r="M69" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4979,34 +4979,34 @@
         <v>173</v>
       </c>
       <c r="D70" t="n">
-        <v>2.34</v>
+        <v>1.62</v>
       </c>
       <c r="E70" t="n">
-        <v>0.56</v>
+        <v>0.15</v>
       </c>
       <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K70" t="n">
         <v>0.05</v>
       </c>
-      <c r="G70" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.71</v>
-      </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -5044,16 +5044,16 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.79</v>
+        <v>1.12</v>
       </c>
       <c r="K71" t="n">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="L71" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -5091,16 +5091,16 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>3.9</v>
+        <v>2.99</v>
       </c>
       <c r="K72" t="n">
-        <v>1.65</v>
+        <v>0.67</v>
       </c>
       <c r="L72" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="M72" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -5138,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.45</v>
+        <v>0.77</v>
       </c>
       <c r="K73" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -5232,16 +5232,16 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.34</v>
+        <v>1.65</v>
       </c>
       <c r="K75" t="n">
-        <v>0.62</v>
+        <v>0.17</v>
       </c>
       <c r="L75" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -5279,16 +5279,16 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3.35</v>
+        <v>2.59</v>
       </c>
       <c r="K76" t="n">
-        <v>1.73</v>
+        <v>0.62</v>
       </c>
       <c r="L76" t="n">
-        <v>0.49</v>
+        <v>0.02</v>
       </c>
       <c r="M76" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -5308,13 +5308,13 @@
         <v>181</v>
       </c>
       <c r="D77" t="n">
-        <v>10.03</v>
+        <v>6.87</v>
       </c>
       <c r="E77" t="n">
-        <v>6.57</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -5326,16 +5326,16 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>4.09</v>
+        <v>3.3</v>
       </c>
       <c r="K77" t="n">
-        <v>2.33</v>
+        <v>1.09</v>
       </c>
       <c r="L77" t="n">
-        <v>0.9</v>
+        <v>0.19</v>
       </c>
       <c r="M77" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -5355,13 +5355,13 @@
         <v>183</v>
       </c>
       <c r="D78" t="n">
-        <v>10.94</v>
+        <v>9.64</v>
       </c>
       <c r="E78" t="n">
-        <v>8.44</v>
+        <v>5.62</v>
       </c>
       <c r="F78" t="n">
-        <v>5.51</v>
+        <v>1.3</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -5373,16 +5373,16 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>4.54</v>
+        <v>3.71</v>
       </c>
       <c r="K78" t="n">
-        <v>2.52</v>
+        <v>1.16</v>
       </c>
       <c r="L78" t="n">
-        <v>0.88</v>
+        <v>0.14</v>
       </c>
       <c r="M78" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -5402,16 +5402,16 @@
         <v>185</v>
       </c>
       <c r="D79" t="n">
-        <v>1.21</v>
+        <v>0.29</v>
       </c>
       <c r="E79" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5420,16 +5420,16 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.52</v>
+        <v>0.57</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -5449,16 +5449,16 @@
         <v>186</v>
       </c>
       <c r="D80" t="n">
-        <v>1.3</v>
+        <v>0.53</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5467,16 +5467,16 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1.59</v>
+        <v>0.68</v>
       </c>
       <c r="K80" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -5496,13 +5496,13 @@
         <v>187</v>
       </c>
       <c r="D81" t="n">
-        <v>7.4</v>
+        <v>3.67</v>
       </c>
       <c r="E81" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -5514,16 +5514,16 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>5.94</v>
+        <v>3.21</v>
       </c>
       <c r="K81" t="n">
-        <v>1.95</v>
+        <v>0.12</v>
       </c>
       <c r="L81" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -5543,16 +5543,16 @@
         <v>188</v>
       </c>
       <c r="D82" t="n">
-        <v>5.13</v>
+        <v>3.72</v>
       </c>
       <c r="E82" t="n">
-        <v>3.03</v>
+        <v>1.07</v>
       </c>
       <c r="F82" t="n">
-        <v>1.39</v>
+        <v>0.01</v>
       </c>
       <c r="G82" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5561,16 +5561,16 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>3.22</v>
+        <v>1.65</v>
       </c>
       <c r="K82" t="n">
-        <v>0.82</v>
+        <v>0.07</v>
       </c>
       <c r="L82" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -5590,13 +5590,13 @@
         <v>190</v>
       </c>
       <c r="D83" t="n">
-        <v>11.45</v>
+        <v>8.36</v>
       </c>
       <c r="E83" t="n">
-        <v>7.62</v>
+        <v>0.97</v>
       </c>
       <c r="F83" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -5608,16 +5608,16 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>3.88</v>
+        <v>3.19</v>
       </c>
       <c r="K83" t="n">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>0.68</v>
+        <v>0.11</v>
       </c>
       <c r="M83" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -5655,16 +5655,16 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>3.75</v>
+        <v>3.17</v>
       </c>
       <c r="K84" t="n">
-        <v>2.08</v>
+        <v>1.06</v>
       </c>
       <c r="L84" t="n">
-        <v>0.54</v>
+        <v>0.06</v>
       </c>
       <c r="M84" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -5684,13 +5684,13 @@
         <v>192</v>
       </c>
       <c r="D85" t="n">
-        <v>7.69</v>
+        <v>5.38</v>
       </c>
       <c r="E85" t="n">
-        <v>4.84</v>
+        <v>0.58</v>
       </c>
       <c r="F85" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -5702,16 +5702,16 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>4.04</v>
+        <v>3.05</v>
       </c>
       <c r="K85" t="n">
-        <v>1.91</v>
+        <v>0.61</v>
       </c>
       <c r="L85" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="M85" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -5749,13 +5749,13 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>3.67</v>
+        <v>3.19</v>
       </c>
       <c r="K86" t="n">
-        <v>2.05</v>
+        <v>1.04</v>
       </c>
       <c r="L86" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -5796,13 +5796,13 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>4.05</v>
+        <v>3.51</v>
       </c>
       <c r="K87" t="n">
-        <v>2.47</v>
+        <v>1.41</v>
       </c>
       <c r="L87" t="n">
-        <v>0.86</v>
+        <v>0.17</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -5843,16 +5843,16 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="K88" t="n">
-        <v>2.15</v>
+        <v>1.19</v>
       </c>
       <c r="L88" t="n">
-        <v>0.63</v>
+        <v>0.09</v>
       </c>
       <c r="M88" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
@@ -5890,16 +5890,16 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.35</v>
+        <v>1.67</v>
       </c>
       <c r="K89" t="n">
-        <v>0.7</v>
+        <v>0.18</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5937,16 +5937,16 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.63</v>
+        <v>0.98</v>
       </c>
       <c r="K90" t="n">
-        <v>0.31</v>
+        <v>0.09</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5966,16 +5966,16 @@
         <v>198</v>
       </c>
       <c r="D91" t="n">
-        <v>1.32</v>
+        <v>0.63</v>
       </c>
       <c r="E91" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5984,16 +5984,16 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>3.71</v>
+        <v>3.19</v>
       </c>
       <c r="K91" t="n">
-        <v>2.32</v>
+        <v>1.6</v>
       </c>
       <c r="L91" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="M91" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -6013,10 +6013,10 @@
         <v>200</v>
       </c>
       <c r="D92" t="n">
-        <v>2.79</v>
+        <v>2.17</v>
       </c>
       <c r="E92" t="n">
-        <v>1.01</v>
+        <v>0.06</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -6031,16 +6031,16 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.72</v>
+        <v>1.93</v>
       </c>
       <c r="K92" t="n">
-        <v>0.8</v>
+        <v>0.12</v>
       </c>
       <c r="L92" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -6060,16 +6060,16 @@
         <v>201</v>
       </c>
       <c r="D93" t="n">
-        <v>2.47</v>
+        <v>1.34</v>
       </c>
       <c r="E93" t="n">
-        <v>0.55</v>
+        <v>0.02</v>
       </c>
       <c r="F93" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6078,16 +6078,16 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.85</v>
+        <v>1.99</v>
       </c>
       <c r="K93" t="n">
-        <v>0.94</v>
+        <v>0.16</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -6107,16 +6107,16 @@
         <v>202</v>
       </c>
       <c r="D94" t="n">
-        <v>2.95</v>
+        <v>1.5</v>
       </c>
       <c r="E94" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6125,16 +6125,16 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.4</v>
+        <v>1.59</v>
       </c>
       <c r="K94" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="L94" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -6172,16 +6172,16 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.67</v>
+        <v>1.99</v>
       </c>
       <c r="K95" t="n">
-        <v>0.91</v>
+        <v>0.13</v>
       </c>
       <c r="L95" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -6201,13 +6201,13 @@
         <v>204</v>
       </c>
       <c r="D96" t="n">
-        <v>1.88</v>
+        <v>1.32</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5</v>
+        <v>0.04</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -6219,16 +6219,16 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>4.04</v>
+        <v>3.31</v>
       </c>
       <c r="K96" t="n">
-        <v>1.83</v>
+        <v>0.83</v>
       </c>
       <c r="L96" t="n">
-        <v>0.41</v>
+        <v>0.06</v>
       </c>
       <c r="M96" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -6248,16 +6248,16 @@
         <v>205</v>
       </c>
       <c r="D97" t="n">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="E97" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6266,16 +6266,16 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>4.38</v>
+        <v>3.23</v>
       </c>
       <c r="K97" t="n">
-        <v>2.3</v>
+        <v>0.79</v>
       </c>
       <c r="L97" t="n">
-        <v>0.53</v>
+        <v>0.03</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -6295,16 +6295,16 @@
         <v>206</v>
       </c>
       <c r="D98" t="n">
-        <v>1.59</v>
+        <v>0.97</v>
       </c>
       <c r="E98" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="F98" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6313,16 +6313,16 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>4.69</v>
+        <v>4.07</v>
       </c>
       <c r="K98" t="n">
-        <v>2.75</v>
+        <v>1.67</v>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="M98" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -6360,16 +6360,16 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>4.57</v>
+        <v>3.8</v>
       </c>
       <c r="K99" t="n">
-        <v>2.62</v>
+        <v>1.69</v>
       </c>
       <c r="L99" t="n">
-        <v>1.18</v>
+        <v>0.45</v>
       </c>
       <c r="M99" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -6389,16 +6389,16 @@
         <v>209</v>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="E100" t="n">
-        <v>0.68</v>
+        <v>0.05</v>
       </c>
       <c r="F100" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6407,16 +6407,16 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.03</v>
+        <v>1.29</v>
       </c>
       <c r="K100" t="n">
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         <v>211</v>
       </c>
       <c r="D101" t="n">
-        <v>3.42</v>
+        <v>2.61</v>
       </c>
       <c r="E101" t="n">
-        <v>1.37</v>
+        <v>0.43</v>
       </c>
       <c r="F101" t="n">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -6454,16 +6454,16 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>3.27</v>
+        <v>2.38</v>
       </c>
       <c r="K101" t="n">
-        <v>1.06</v>
+        <v>0.23</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -6483,13 +6483,13 @@
         <v>212</v>
       </c>
       <c r="D102" t="n">
-        <v>6.57</v>
+        <v>5.49</v>
       </c>
       <c r="E102" t="n">
-        <v>3.87</v>
+        <v>1.55</v>
       </c>
       <c r="F102" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -6501,16 +6501,16 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.59</v>
+        <v>1.72</v>
       </c>
       <c r="K102" t="n">
-        <v>0.63</v>
+        <v>0.13</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -6530,13 +6530,13 @@
         <v>213</v>
       </c>
       <c r="D103" t="n">
-        <v>5</v>
+        <v>4.08</v>
       </c>
       <c r="E103" t="n">
-        <v>2.55</v>
+        <v>0.78</v>
       </c>
       <c r="F103" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -6548,16 +6548,16 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>4.23</v>
+        <v>3.21</v>
       </c>
       <c r="K103" t="n">
-        <v>1.61</v>
+        <v>0.43</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -6595,16 +6595,16 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1.35</v>
+        <v>0.5</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="N104" t="n">
         <v>0</v>
@@ -6624,16 +6624,16 @@
         <v>215</v>
       </c>
       <c r="D105" t="n">
-        <v>3.09</v>
+        <v>2.22</v>
       </c>
       <c r="E105" t="n">
-        <v>1.13</v>
+        <v>0.39</v>
       </c>
       <c r="F105" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6642,16 +6642,16 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.15</v>
+        <v>1.33</v>
       </c>
       <c r="K105" t="n">
-        <v>0.43</v>
+        <v>0.05</v>
       </c>
       <c r="L105" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
@@ -6671,16 +6671,16 @@
         <v>216</v>
       </c>
       <c r="D106" t="n">
-        <v>3.42</v>
+        <v>2.57</v>
       </c>
       <c r="E106" t="n">
-        <v>1.28</v>
+        <v>0.23</v>
       </c>
       <c r="F106" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6689,16 +6689,16 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="K106" t="n">
-        <v>0.67</v>
+        <v>0.02</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="N106" t="n">
         <v>0</v>
@@ -6718,16 +6718,16 @@
         <v>217</v>
       </c>
       <c r="D107" t="n">
-        <v>3.51</v>
+        <v>2.72</v>
       </c>
       <c r="E107" t="n">
-        <v>1.29</v>
+        <v>0.31</v>
       </c>
       <c r="F107" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6736,16 +6736,16 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>3.23</v>
+        <v>2.35</v>
       </c>
       <c r="K107" t="n">
-        <v>1.08</v>
+        <v>0.2</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
@@ -6765,16 +6765,16 @@
         <v>218</v>
       </c>
       <c r="D108" t="n">
-        <v>3.14</v>
+        <v>2.25</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="F108" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6783,16 +6783,16 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2.25</v>
+        <v>1.24</v>
       </c>
       <c r="K108" t="n">
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
@@ -6812,16 +6812,16 @@
         <v>219</v>
       </c>
       <c r="D109" t="n">
-        <v>2.77</v>
+        <v>1.7</v>
       </c>
       <c r="E109" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6830,16 +6830,16 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.38</v>
+        <v>1.24</v>
       </c>
       <c r="K109" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
@@ -6859,13 +6859,13 @@
         <v>214</v>
       </c>
       <c r="D110" t="n">
-        <v>2.99</v>
+        <v>2.36</v>
       </c>
       <c r="E110" t="n">
-        <v>1.3</v>
+        <v>0.34</v>
       </c>
       <c r="F110" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -6877,16 +6877,16 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1.67</v>
+        <v>0.95</v>
       </c>
       <c r="K110" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
@@ -6906,16 +6906,16 @@
         <v>220</v>
       </c>
       <c r="D111" t="n">
-        <v>2.83</v>
+        <v>1.74</v>
       </c>
       <c r="E111" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6924,16 +6924,16 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2.27</v>
+        <v>1.12</v>
       </c>
       <c r="K111" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
@@ -6953,16 +6953,16 @@
         <v>221</v>
       </c>
       <c r="D112" t="n">
-        <v>4.4</v>
+        <v>3.68</v>
       </c>
       <c r="E112" t="n">
-        <v>2.28</v>
+        <v>0.95</v>
       </c>
       <c r="F112" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -6971,13 +6971,13 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>4.02</v>
+        <v>3.25</v>
       </c>
       <c r="K112" t="n">
-        <v>1.94</v>
+        <v>0.69</v>
       </c>
       <c r="L112" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -7018,16 +7018,16 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>1.96</v>
+        <v>1.13</v>
       </c>
       <c r="K113" t="n">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="L113" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
@@ -7047,7 +7047,7 @@
         <v>223</v>
       </c>
       <c r="D114" t="n">
-        <v>1.57</v>
+        <v>0.19</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>3.06</v>
+        <v>1.48</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -7159,16 +7159,16 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>4.9</v>
+        <v>3.68</v>
       </c>
       <c r="K116" t="n">
-        <v>2.95</v>
+        <v>1.82</v>
       </c>
       <c r="L116" t="n">
-        <v>1.62</v>
+        <v>0.58</v>
       </c>
       <c r="M116" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
         <v>0</v>
@@ -7206,16 +7206,16 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>4.07</v>
+        <v>3.03</v>
       </c>
       <c r="K117" t="n">
-        <v>1.98</v>
+        <v>0.77</v>
       </c>
       <c r="L117" t="n">
-        <v>0.54</v>
+        <v>0.03</v>
       </c>
       <c r="M117" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N117" t="n">
         <v>0</v>
@@ -7235,16 +7235,16 @@
         <v>228</v>
       </c>
       <c r="D118" t="n">
-        <v>1.32</v>
+        <v>0.55</v>
       </c>
       <c r="E118" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7253,16 +7253,16 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1.74</v>
+        <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="N118" t="n">
         <v>0</v>
@@ -7282,16 +7282,16 @@
         <v>229</v>
       </c>
       <c r="D119" t="n">
-        <v>2.64</v>
+        <v>1.71</v>
       </c>
       <c r="E119" t="n">
-        <v>0.56</v>
+        <v>0.02</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7300,16 +7300,16 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="K119" t="n">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="N119" t="n">
         <v>0</v>
@@ -7329,16 +7329,16 @@
         <v>230</v>
       </c>
       <c r="D120" t="n">
-        <v>1.43</v>
+        <v>0.54</v>
       </c>
       <c r="E120" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="F120" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7347,16 +7347,16 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.69</v>
+        <v>0.93</v>
       </c>
       <c r="K120" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="N120" t="n">
         <v>0</v>
@@ -7376,16 +7376,16 @@
         <v>232</v>
       </c>
       <c r="D121" t="n">
-        <v>2.65</v>
+        <v>1.25</v>
       </c>
       <c r="E121" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7394,16 +7394,16 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.6</v>
+        <v>0.72</v>
       </c>
       <c r="K121" t="n">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N121" t="n">
         <v>0</v>
@@ -7423,7 +7423,7 @@
         <v>233</v>
       </c>
       <c r="D122" t="n">
-        <v>1.19</v>
+        <v>0.38</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7441,16 +7441,16 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1.64</v>
+        <v>0.65</v>
       </c>
       <c r="K122" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N122" t="n">
         <v>0</v>
@@ -7470,16 +7470,16 @@
         <v>234</v>
       </c>
       <c r="D123" t="n">
-        <v>3.04</v>
+        <v>1.33</v>
       </c>
       <c r="E123" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7488,16 +7488,16 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>2.37</v>
+        <v>1.42</v>
       </c>
       <c r="K123" t="n">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
       <c r="L123" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
@@ -7517,16 +7517,16 @@
         <v>235</v>
       </c>
       <c r="D124" t="n">
-        <v>4.27</v>
+        <v>2.14</v>
       </c>
       <c r="E124" t="n">
-        <v>1.39</v>
+        <v>0.05</v>
       </c>
       <c r="F124" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7535,16 +7535,16 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>1.53</v>
+        <v>0.63</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
@@ -7564,16 +7564,16 @@
         <v>237</v>
       </c>
       <c r="D125" t="n">
-        <v>1.71</v>
+        <v>0.98</v>
       </c>
       <c r="E125" t="n">
-        <v>0.39</v>
+        <v>0.03</v>
       </c>
       <c r="F125" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7582,16 +7582,16 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>1.63</v>
+        <v>0.92</v>
       </c>
       <c r="K125" t="n">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="L125" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
@@ -7611,16 +7611,16 @@
         <v>238</v>
       </c>
       <c r="D126" t="n">
-        <v>3.51</v>
+        <v>2.64</v>
       </c>
       <c r="E126" t="n">
-        <v>1.71</v>
+        <v>0.45</v>
       </c>
       <c r="F126" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7629,13 +7629,13 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>4.61</v>
+        <v>3.47</v>
       </c>
       <c r="K126" t="n">
-        <v>2.45</v>
+        <v>0.74</v>
       </c>
       <c r="L126" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -7658,16 +7658,16 @@
         <v>236</v>
       </c>
       <c r="D127" t="n">
-        <v>3.15</v>
+        <v>2.04</v>
       </c>
       <c r="E127" t="n">
-        <v>1.52</v>
+        <v>0.43</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7676,16 +7676,16 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.7</v>
+        <v>0.92</v>
       </c>
       <c r="K127" t="n">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="L127" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="N127" t="n">
         <v>0</v>
@@ -7705,16 +7705,16 @@
         <v>239</v>
       </c>
       <c r="D128" t="n">
-        <v>1.51</v>
+        <v>0.86</v>
       </c>
       <c r="E128" t="n">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7723,16 +7723,16 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>2.21</v>
+        <v>1.52</v>
       </c>
       <c r="K128" t="n">
-        <v>0.54</v>
+        <v>0.07</v>
       </c>
       <c r="L128" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
@@ -7761,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -7770,16 +7770,16 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>3.2</v>
+        <v>1.92</v>
       </c>
       <c r="K129" t="n">
-        <v>0.87</v>
+        <v>0.24</v>
       </c>
       <c r="L129" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N129" t="n">
         <v>0</v>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>1.5</v>
+        <v>0.44</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
@@ -7826,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N130" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.29</v>
+        <v>0.17</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -7893,7 +7893,7 @@
         <v>206</v>
       </c>
       <c r="D132" t="n">
-        <v>1.46</v>
+        <v>0.86</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -7911,16 +7911,16 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>4.32</v>
+        <v>3.77</v>
       </c>
       <c r="K132" t="n">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="L132" t="n">
-        <v>1.36</v>
+        <v>0.49</v>
       </c>
       <c r="M132" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -7958,16 +7958,16 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1.84</v>
+        <v>0.63</v>
       </c>
       <c r="K133" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
       </c>
       <c r="M133" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N133" t="n">
         <v>0</v>
@@ -7987,13 +7987,13 @@
         <v>247</v>
       </c>
       <c r="D134" t="n">
-        <v>2.68</v>
+        <v>2.02</v>
       </c>
       <c r="E134" t="n">
-        <v>0.87</v>
+        <v>0.33</v>
       </c>
       <c r="F134" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -8005,16 +8005,16 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2.85</v>
+        <v>2.04</v>
       </c>
       <c r="K134" t="n">
-        <v>0.96</v>
+        <v>0.3</v>
       </c>
       <c r="L134" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="M134" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
@@ -8052,16 +8052,16 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>2.43</v>
+        <v>1.34</v>
       </c>
       <c r="K135" t="n">
-        <v>0.55</v>
+        <v>0.11</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
@@ -8081,16 +8081,16 @@
         <v>250</v>
       </c>
       <c r="D136" t="n">
-        <v>5.79</v>
+        <v>4.94</v>
       </c>
       <c r="E136" t="n">
-        <v>3.51</v>
+        <v>1.86</v>
       </c>
       <c r="F136" t="n">
-        <v>1.16</v>
+        <v>0.05</v>
       </c>
       <c r="G136" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8099,16 +8099,16 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>4.26</v>
+        <v>2.91</v>
       </c>
       <c r="K136" t="n">
-        <v>1.56</v>
+        <v>0.2</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M136" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="N136" t="n">
         <v>0</v>
@@ -8128,16 +8128,16 @@
         <v>251</v>
       </c>
       <c r="D137" t="n">
-        <v>4.01</v>
+        <v>3.17</v>
       </c>
       <c r="E137" t="n">
-        <v>1.79</v>
+        <v>0.62</v>
       </c>
       <c r="F137" t="n">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
       <c r="G137" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8146,16 +8146,16 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>2.93</v>
+        <v>1.94</v>
       </c>
       <c r="K137" t="n">
-        <v>0.77</v>
+        <v>0.1</v>
       </c>
       <c r="L137" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="N137" t="n">
         <v>0</v>
@@ -8175,16 +8175,16 @@
         <v>252</v>
       </c>
       <c r="D138" t="n">
-        <v>3.26</v>
+        <v>2.37</v>
       </c>
       <c r="E138" t="n">
-        <v>0.99</v>
+        <v>0.15</v>
       </c>
       <c r="F138" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8193,16 +8193,16 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>2.42</v>
+        <v>1.42</v>
       </c>
       <c r="K138" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
@@ -8240,16 +8240,16 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>3.28</v>
+        <v>2.68</v>
       </c>
       <c r="K139" t="n">
-        <v>1.63</v>
+        <v>0.93</v>
       </c>
       <c r="L139" t="n">
-        <v>0.54</v>
+        <v>0.13</v>
       </c>
       <c r="M139" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N139" t="n">
         <v>0</v>
@@ -8287,16 +8287,16 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>3.39</v>
+        <v>2.75</v>
       </c>
       <c r="K140" t="n">
-        <v>1.63</v>
+        <v>0.88</v>
       </c>
       <c r="L140" t="n">
-        <v>0.51</v>
+        <v>0.14</v>
       </c>
       <c r="M140" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N140" t="n">
         <v>0</v>
@@ -8334,16 +8334,16 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>1.89</v>
+        <v>1.14</v>
       </c>
       <c r="K141" t="n">
-        <v>0.29</v>
+        <v>0.02</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
       </c>
       <c r="M141" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N141" t="n">
         <v>0</v>
@@ -8381,16 +8381,16 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>2.87</v>
+        <v>2.3</v>
       </c>
       <c r="K142" t="n">
-        <v>1.42</v>
+        <v>0.63</v>
       </c>
       <c r="L142" t="n">
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N142" t="n">
         <v>0</v>
@@ -8410,13 +8410,13 @@
         <v>259</v>
       </c>
       <c r="D143" t="n">
-        <v>3.67</v>
+        <v>2.76</v>
       </c>
       <c r="E143" t="n">
-        <v>1.75</v>
+        <v>0.26</v>
       </c>
       <c r="F143" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -8428,16 +8428,16 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>3.09</v>
+        <v>2.37</v>
       </c>
       <c r="K143" t="n">
-        <v>1.33</v>
+        <v>0.42</v>
       </c>
       <c r="L143" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M143" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N143" t="n">
         <v>0</v>
@@ -8457,13 +8457,13 @@
         <v>256</v>
       </c>
       <c r="D144" t="n">
-        <v>7.35</v>
+        <v>5.27</v>
       </c>
       <c r="E144" t="n">
-        <v>4.32</v>
+        <v>0.3</v>
       </c>
       <c r="F144" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -8475,16 +8475,16 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>4.27</v>
+        <v>3.43</v>
       </c>
       <c r="K144" t="n">
-        <v>2.35</v>
+        <v>0.97</v>
       </c>
       <c r="L144" t="n">
-        <v>0.7</v>
+        <v>0.04</v>
       </c>
       <c r="M144" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N144" t="n">
         <v>0</v>
@@ -8504,16 +8504,16 @@
         <v>261</v>
       </c>
       <c r="D145" t="n">
-        <v>2.71</v>
+        <v>1.76</v>
       </c>
       <c r="E145" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8522,16 +8522,16 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>2.23</v>
+        <v>1.23</v>
       </c>
       <c r="K145" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
       </c>
       <c r="M145" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N145" t="n">
         <v>0</v>
@@ -8551,16 +8551,16 @@
         <v>262</v>
       </c>
       <c r="D146" t="n">
-        <v>2.31</v>
+        <v>1.15</v>
       </c>
       <c r="E146" t="n">
-        <v>0.42</v>
+        <v>0.14</v>
       </c>
       <c r="F146" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="G146" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8569,16 +8569,16 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>2.94</v>
+        <v>1.95</v>
       </c>
       <c r="K146" t="n">
-        <v>0.81</v>
+        <v>0.11</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N146" t="n">
         <v>0</v>
@@ -8598,16 +8598,16 @@
         <v>263</v>
       </c>
       <c r="D147" t="n">
-        <v>2.13</v>
+        <v>1.43</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="F147" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -8616,16 +8616,16 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>2.56</v>
+        <v>1.66</v>
       </c>
       <c r="K147" t="n">
-        <v>0.64</v>
+        <v>0.12</v>
       </c>
       <c r="L147" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M147" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="N147" t="n">
         <v>0</v>
@@ -8645,16 +8645,16 @@
         <v>264</v>
       </c>
       <c r="D148" t="n">
-        <v>2.51</v>
+        <v>1.5</v>
       </c>
       <c r="E148" t="n">
-        <v>0.71</v>
+        <v>0.18</v>
       </c>
       <c r="F148" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -8663,16 +8663,16 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>3.24</v>
+        <v>2.43</v>
       </c>
       <c r="K148" t="n">
-        <v>1.28</v>
+        <v>0.37</v>
       </c>
       <c r="L148" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M148" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="N148" t="n">
         <v>0</v>
@@ -8692,16 +8692,16 @@
         <v>266</v>
       </c>
       <c r="D149" t="n">
-        <v>4.6</v>
+        <v>3.77</v>
       </c>
       <c r="E149" t="n">
-        <v>2.21</v>
+        <v>1.07</v>
       </c>
       <c r="F149" t="n">
-        <v>0.59</v>
+        <v>0.09</v>
       </c>
       <c r="G149" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -8710,16 +8710,16 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2.71</v>
+        <v>1.41</v>
       </c>
       <c r="K149" t="n">
-        <v>0.69</v>
+        <v>0.07</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M149" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N149" t="n">
         <v>0</v>
@@ -8739,13 +8739,13 @@
         <v>267</v>
       </c>
       <c r="D150" t="n">
-        <v>5.21</v>
+        <v>4.4</v>
       </c>
       <c r="E150" t="n">
-        <v>2.91</v>
+        <v>1.41</v>
       </c>
       <c r="F150" t="n">
-        <v>0.86</v>
+        <v>0.08</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -8757,13 +8757,13 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>3.92</v>
+        <v>2.8</v>
       </c>
       <c r="K150" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M150" t="n">
         <v>0</v>
@@ -8786,16 +8786,16 @@
         <v>269</v>
       </c>
       <c r="D151" t="n">
-        <v>2.28</v>
+        <v>1.28</v>
       </c>
       <c r="E151" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -8804,16 +8804,16 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>2.18</v>
+        <v>1.16</v>
       </c>
       <c r="K151" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>0</v>
       </c>
       <c r="M151" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="N151" t="n">
         <v>0</v>
@@ -8833,34 +8833,34 @@
         <v>270</v>
       </c>
       <c r="D152" t="n">
-        <v>2.27</v>
+        <v>1.44</v>
       </c>
       <c r="E152" t="n">
-        <v>0.39</v>
+        <v>0.03</v>
       </c>
       <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.01</v>
       </c>
-      <c r="G152" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.32</v>
-      </c>
       <c r="L152" t="n">
         <v>0</v>
       </c>
       <c r="M152" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="N152" t="n">
         <v>0</v>
@@ -8880,13 +8880,13 @@
         <v>272</v>
       </c>
       <c r="D153" t="n">
-        <v>6.78</v>
+        <v>5.86</v>
       </c>
       <c r="E153" t="n">
-        <v>4.04</v>
+        <v>2.06</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -8898,16 +8898,16 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>3.76</v>
+        <v>2.86</v>
       </c>
       <c r="K153" t="n">
-        <v>1.47</v>
+        <v>0.54</v>
       </c>
       <c r="L153" t="n">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N153" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>273</v>
       </c>
       <c r="D154" t="n">
-        <v>3.94</v>
+        <v>3.04</v>
       </c>
       <c r="E154" t="n">
-        <v>1.4</v>
+        <v>0.23</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -8945,16 +8945,16 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>3.1</v>
+        <v>1.94</v>
       </c>
       <c r="K154" t="n">
-        <v>0.9</v>
+        <v>0.18</v>
       </c>
       <c r="L154" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="M154" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N154" t="n">
         <v>0</v>
@@ -8974,13 +8974,13 @@
         <v>274</v>
       </c>
       <c r="D155" t="n">
-        <v>3.76</v>
+        <v>2.92</v>
       </c>
       <c r="E155" t="n">
-        <v>1.63</v>
+        <v>0.78</v>
       </c>
       <c r="F155" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -8992,16 +8992,16 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>3.92</v>
+        <v>2.97</v>
       </c>
       <c r="K155" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="L155" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="N155" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>276</v>
       </c>
       <c r="D156" t="n">
-        <v>7.47</v>
+        <v>5.58</v>
       </c>
       <c r="E156" t="n">
-        <v>4.69</v>
+        <v>1.13</v>
       </c>
       <c r="F156" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -9039,16 +9039,16 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>5.48</v>
+        <v>4.75</v>
       </c>
       <c r="K156" t="n">
-        <v>3.78</v>
+        <v>2.29</v>
       </c>
       <c r="L156" t="n">
-        <v>1.92</v>
+        <v>0.44</v>
       </c>
       <c r="M156" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N156" t="n">
         <v>0</v>
@@ -9068,13 +9068,13 @@
         <v>277</v>
       </c>
       <c r="D157" t="n">
-        <v>11.39</v>
+        <v>9.49</v>
       </c>
       <c r="E157" t="n">
-        <v>8.74</v>
+        <v>4.65</v>
       </c>
       <c r="F157" t="n">
-        <v>5.65</v>
+        <v>0.19</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -9086,13 +9086,13 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>4.72</v>
+        <v>4.15</v>
       </c>
       <c r="K157" t="n">
-        <v>3.25</v>
+        <v>2.11</v>
       </c>
       <c r="L157" t="n">
-        <v>1.66</v>
+        <v>0.41</v>
       </c>
       <c r="M157" t="n">
         <v>0</v>
@@ -9115,13 +9115,13 @@
         <v>275</v>
       </c>
       <c r="D158" t="n">
-        <v>12.14</v>
+        <v>9.71</v>
       </c>
       <c r="E158" t="n">
-        <v>8.59</v>
+        <v>3.35</v>
       </c>
       <c r="F158" t="n">
-        <v>4.45</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -9133,16 +9133,16 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>4.02</v>
+        <v>3.44</v>
       </c>
       <c r="K158" t="n">
-        <v>2.52</v>
+        <v>1.46</v>
       </c>
       <c r="L158" t="n">
-        <v>1.03</v>
+        <v>0.23</v>
       </c>
       <c r="M158" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N158" t="n">
         <v>0</v>
@@ -9180,13 +9180,13 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>2.89</v>
+        <v>2.5</v>
       </c>
       <c r="K159" t="n">
-        <v>1.68</v>
+        <v>0.83</v>
       </c>
       <c r="L159" t="n">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
       <c r="M159" t="n">
         <v>0</v>
@@ -9209,13 +9209,13 @@
         <v>280</v>
       </c>
       <c r="D160" t="n">
-        <v>3.56</v>
+        <v>2.75</v>
       </c>
       <c r="E160" t="n">
-        <v>1.7</v>
+        <v>0.49</v>
       </c>
       <c r="F160" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -9227,16 +9227,16 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="K160" t="n">
-        <v>1.26</v>
+        <v>0.37</v>
       </c>
       <c r="L160" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M160" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="N160" t="n">
         <v>0</v>
@@ -9256,13 +9256,13 @@
         <v>281</v>
       </c>
       <c r="D161" t="n">
-        <v>2.96</v>
+        <v>2.23</v>
       </c>
       <c r="E161" t="n">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="F161" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -9274,16 +9274,16 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>3.83</v>
+        <v>3.2</v>
       </c>
       <c r="K161" t="n">
-        <v>2.13</v>
+        <v>1.09</v>
       </c>
       <c r="L161" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="M161" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N161" t="n">
         <v>0</v>
@@ -9303,13 +9303,13 @@
         <v>279</v>
       </c>
       <c r="D162" t="n">
-        <v>3.07</v>
+        <v>2.18</v>
       </c>
       <c r="E162" t="n">
-        <v>0.99</v>
+        <v>0.22</v>
       </c>
       <c r="F162" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>3.4</v>
+        <v>2.66</v>
       </c>
       <c r="K162" t="n">
-        <v>1.65</v>
+        <v>0.66</v>
       </c>
       <c r="L162" t="n">
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
       <c r="M162" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="N162" t="n">
         <v>0</v>
@@ -9368,13 +9368,13 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>4.81</v>
+        <v>3.94</v>
       </c>
       <c r="K163" t="n">
-        <v>2.49</v>
+        <v>0.83</v>
       </c>
       <c r="L163" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="M163" t="n">
         <v>0</v>
@@ -9397,16 +9397,16 @@
         <v>284</v>
       </c>
       <c r="D164" t="n">
-        <v>1.76</v>
+        <v>0.67</v>
       </c>
       <c r="E164" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="F164" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>1.97</v>
+        <v>1.1</v>
       </c>
       <c r="K164" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M164" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N164" t="n">
         <v>0</v>
@@ -9444,16 +9444,16 @@
         <v>285</v>
       </c>
       <c r="D165" t="n">
-        <v>3.01</v>
+        <v>1.82</v>
       </c>
       <c r="E165" t="n">
-        <v>0.74</v>
+        <v>0.04</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -9462,13 +9462,13 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>3.68</v>
+        <v>2.54</v>
       </c>
       <c r="K165" t="n">
-        <v>1.32</v>
+        <v>0.24</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M165" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>128</v>
       </c>
       <c r="D166" t="n">
-        <v>1.21</v>
+        <v>0.53</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -9509,16 +9509,16 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>1.36</v>
+        <v>0.67</v>
       </c>
       <c r="K166" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>0</v>
       </c>
       <c r="M166" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N166" t="n">
         <v>0</v>
@@ -9556,16 +9556,16 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>3.85</v>
+        <v>3.19</v>
       </c>
       <c r="K167" t="n">
-        <v>2.31</v>
+        <v>1.26</v>
       </c>
       <c r="L167" t="n">
-        <v>0.99</v>
+        <v>0.27</v>
       </c>
       <c r="M167" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N167" t="n">
         <v>0</v>
